--- a/results/BaggingClassifier_ElasticNet_randomsearch-train_df.xlsx
+++ b/results/BaggingClassifier_ElasticNet_randomsearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.53125</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6732673267326732</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5952380952380951</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6966594827586207</v>
+        <v>0.6439962476547842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6746411483253588</v>
+        <v>0.6423933209647495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6309523809523809</v>
+        <v>0.6425160163075131</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.726895624768261</v>
+        <v>0.6445258125037826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6244239631336406</v>
+        <v>0.6441693125669303</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D7" t="n">
-        <v>0.575</v>
+        <v>0.6796116504854369</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.679245283018868</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.626750700280112</v>
+        <v>0.6445868945868947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6299043062200957</v>
+        <v>0.6412337662337663</v>
       </c>
       <c r="D10" t="n">
-        <v>0.627122641509434</v>
+        <v>0.6410106445198269</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6412156260353604</v>
+        <v>0.6447783598321234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6366504361939542</v>
+        <v>0.6430859674212038</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.7037037037037036</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6217703349282298</v>
+        <v>0.6602691924227317</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6217703349282298</v>
+        <v>0.6491187384044527</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6217703349282298</v>
+        <v>0.6467236467236467</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6593981496371101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6497870906473057</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4626865671641791</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5904761904761905</v>
+        <v>0.7022900763358778</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3454545454545455</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4691358024691359</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5376344086021505</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5376344086021505</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5376344086021505</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5376344086021505</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5967278989667049</v>
+        <v>0.6441241685144125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5806220095693779</v>
+        <v>0.5602968460111317</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5298059964726631</v>
+        <v>0.4965995836224844</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6212300778983495</v>
+        <v>0.6396538158929976</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5376344086021505</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5187157459558894</v>
+        <v>0.5076582122629894</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.48</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="C22" t="n">
-        <v>0.631578947368421</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6744186046511628</v>
+        <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.5714285714285713</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5772093023255813</v>
+        <v>0.6113207547169811</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5794258373205741</v>
+        <v>0.6094619666048238</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5686456400742115</v>
+        <v>0.6092436974789915</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5949787446861715</v>
+        <v>0.6119293974437005</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="D26" t="n">
-        <v>0.572884872424043</v>
+        <v>0.6112767687720249</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
